--- a/biology/Médecine/Liste_de_principes_actifs/Liste_de_principes_actifs.xlsx
+++ b/biology/Médecine/Liste_de_principes_actifs/Liste_de_principes_actifs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page liste des principes actifs utilisés en pharmacie.
 Sommaire :
@@ -538,7 +550,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Abacavir
 Abatacept
@@ -722,7 +736,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Baclofene
 Benazapril
@@ -763,7 +779,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Candésartan
 Captopril
@@ -817,7 +835,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Desloratadine
 Desogestrel
@@ -858,7 +878,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ébastine
 Éconazole
@@ -893,7 +915,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Fenofibrate
 Fentanyl
@@ -934,7 +958,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Gabapentine
 Gestodene
@@ -968,7 +994,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Hexamidine
 Hexétidine
@@ -1002,7 +1030,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Ibuprofene
 Indapamide
@@ -1037,6 +1067,8 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1062,7 +1094,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Ketoconazole
 Ketoprofene</t>
@@ -1093,7 +1127,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Lactulose
 Lamotrigine
@@ -1137,7 +1173,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Macrogol
 Magnesium
@@ -1182,7 +1220,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Nébivolol
 Nifuroxazide</t>
@@ -1213,7 +1253,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Ofloxacine
 Olmésartan
@@ -1248,7 +1290,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Pantoprazole
 Paracetamol
@@ -1291,7 +1335,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Quinapril
 Quinine</t>
@@ -1322,7 +1368,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Rabéprazole
 Raloxifène
@@ -1357,7 +1405,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Sotalol
 Spiramycine
@@ -1392,7 +1442,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Tamoxifene
 Tamsulosine
@@ -1437,6 +1489,8 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1462,7 +1516,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Valaciclovir
 Valproate de sodium
@@ -1497,6 +1553,8 @@
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1523,6 +1581,8 @@
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1549,6 +1609,8 @@
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1574,7 +1636,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">Zolmitriptan
 Zolpidem
